--- a/SchedulingData/dynamic13/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_15.xlsx
@@ -462,306 +462,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>51.66</v>
+        <v>62.18</v>
       </c>
       <c r="E2" t="n">
-        <v>26.024</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>62.18</v>
       </c>
       <c r="D3" t="n">
-        <v>84.78</v>
+        <v>123.34</v>
       </c>
       <c r="E3" t="n">
-        <v>26.672</v>
+        <v>23.456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.2</v>
+        <v>60.3</v>
       </c>
       <c r="E4" t="n">
-        <v>26.48</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>84.78</v>
+        <v>60.3</v>
       </c>
       <c r="D5" t="n">
-        <v>155.06</v>
+        <v>109.76</v>
       </c>
       <c r="E5" t="n">
-        <v>23.264</v>
+        <v>24.304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>109.76</v>
       </c>
       <c r="D6" t="n">
-        <v>57.16</v>
+        <v>153.12</v>
       </c>
       <c r="E6" t="n">
-        <v>26.464</v>
+        <v>20.608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>120.42</v>
+        <v>69.3</v>
       </c>
       <c r="E7" t="n">
-        <v>22.268</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8</v>
+        <v>138.78</v>
       </c>
       <c r="E8" t="n">
-        <v>26.22</v>
+        <v>23.872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.04000000000001</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>26.136</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>155.06</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>207.7</v>
+        <v>42.3</v>
       </c>
       <c r="E10" t="n">
-        <v>20.14</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.8</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>87.92</v>
+        <v>145.12</v>
       </c>
       <c r="E11" t="n">
-        <v>23.048</v>
+        <v>22.268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>87.92</v>
+        <v>138.78</v>
       </c>
       <c r="D12" t="n">
-        <v>123.62</v>
+        <v>186.22</v>
       </c>
       <c r="E12" t="n">
-        <v>20.608</v>
+        <v>20.748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123.62</v>
+        <v>145.12</v>
       </c>
       <c r="D13" t="n">
-        <v>188.32</v>
+        <v>206.68</v>
       </c>
       <c r="E13" t="n">
-        <v>17.228</v>
+        <v>18.732</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>123.02</v>
+        <v>55.78</v>
       </c>
       <c r="E14" t="n">
-        <v>22.968</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.16</v>
+        <v>42.3</v>
       </c>
       <c r="D15" t="n">
-        <v>118.66</v>
+        <v>116.6</v>
       </c>
       <c r="E15" t="n">
-        <v>22.444</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>207.7</v>
+        <v>153.12</v>
       </c>
       <c r="D16" t="n">
-        <v>264.8</v>
+        <v>213.42</v>
       </c>
       <c r="E16" t="n">
-        <v>16.06</v>
+        <v>18.168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>120.42</v>
+        <v>55.78</v>
       </c>
       <c r="D17" t="n">
-        <v>178.48</v>
+        <v>133.38</v>
       </c>
       <c r="E17" t="n">
-        <v>18.572</v>
+        <v>22.432</v>
       </c>
     </row>
     <row r="18">
@@ -770,74 +770,74 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>123.02</v>
+        <v>123.34</v>
       </c>
       <c r="D18" t="n">
-        <v>187.62</v>
+        <v>168.38</v>
       </c>
       <c r="E18" t="n">
-        <v>20.108</v>
+        <v>19.592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>187.62</v>
+        <v>206.68</v>
       </c>
       <c r="D19" t="n">
-        <v>234.5</v>
+        <v>259.84</v>
       </c>
       <c r="E19" t="n">
-        <v>17.04</v>
+        <v>15.036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>51.66</v>
+        <v>168.38</v>
       </c>
       <c r="D20" t="n">
-        <v>109.72</v>
+        <v>230.28</v>
       </c>
       <c r="E20" t="n">
-        <v>22.328</v>
+        <v>15.512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>118.66</v>
+        <v>259.84</v>
       </c>
       <c r="D21" t="n">
-        <v>190.46</v>
+        <v>306.54</v>
       </c>
       <c r="E21" t="n">
-        <v>18.844</v>
+        <v>11.496</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>178.48</v>
+        <v>306.54</v>
       </c>
       <c r="D22" t="n">
-        <v>228.42</v>
+        <v>363.74</v>
       </c>
       <c r="E22" t="n">
-        <v>14.708</v>
+        <v>7.896</v>
       </c>
     </row>
     <row r="23">
@@ -865,169 +865,169 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>234.5</v>
+        <v>230.28</v>
       </c>
       <c r="D23" t="n">
-        <v>299.3</v>
+        <v>271.22</v>
       </c>
       <c r="E23" t="n">
-        <v>12.18</v>
+        <v>12.548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>228.42</v>
+        <v>213.42</v>
       </c>
       <c r="D24" t="n">
-        <v>275.22</v>
+        <v>278.12</v>
       </c>
       <c r="E24" t="n">
-        <v>11.168</v>
+        <v>14.788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>299.3</v>
+        <v>186.22</v>
       </c>
       <c r="D25" t="n">
-        <v>357.3</v>
+        <v>239.44</v>
       </c>
       <c r="E25" t="n">
-        <v>8.02</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>264.8</v>
+        <v>116.6</v>
       </c>
       <c r="D26" t="n">
-        <v>305.74</v>
+        <v>171.64</v>
       </c>
       <c r="E26" t="n">
-        <v>13.096</v>
+        <v>19.256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>188.32</v>
+        <v>133.38</v>
       </c>
       <c r="D27" t="n">
-        <v>241.44</v>
+        <v>197.36</v>
       </c>
       <c r="E27" t="n">
-        <v>13.536</v>
+        <v>19.624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>109.72</v>
+        <v>197.36</v>
       </c>
       <c r="D28" t="n">
-        <v>155.78</v>
+        <v>268.86</v>
       </c>
       <c r="E28" t="n">
-        <v>18.852</v>
+        <v>15.604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>190.46</v>
+        <v>171.64</v>
       </c>
       <c r="D29" t="n">
-        <v>261.66</v>
+        <v>223.3</v>
       </c>
       <c r="E29" t="n">
-        <v>15.804</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>241.44</v>
+        <v>271.22</v>
       </c>
       <c r="D30" t="n">
-        <v>276.44</v>
+        <v>339.04</v>
       </c>
       <c r="E30" t="n">
-        <v>10.676</v>
+        <v>9.375999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>155.78</v>
+        <v>239.44</v>
       </c>
       <c r="D31" t="n">
-        <v>205.48</v>
+        <v>307.1</v>
       </c>
       <c r="E31" t="n">
-        <v>15.012</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="32">
@@ -1036,136 +1036,136 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>275.22</v>
+        <v>363.74</v>
       </c>
       <c r="D32" t="n">
-        <v>329.4</v>
+        <v>408.64</v>
       </c>
       <c r="E32" t="n">
-        <v>8.359999999999999</v>
+        <v>4.536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>329.4</v>
+        <v>223.3</v>
       </c>
       <c r="D33" t="n">
-        <v>385.56</v>
+        <v>293.3</v>
       </c>
       <c r="E33" t="n">
-        <v>5.864</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>357.3</v>
+        <v>293.3</v>
       </c>
       <c r="D34" t="n">
-        <v>399.06</v>
+        <v>336.38</v>
       </c>
       <c r="E34" t="n">
-        <v>4.484</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>305.74</v>
+        <v>408.64</v>
       </c>
       <c r="D35" t="n">
-        <v>359.74</v>
+        <v>449.8</v>
       </c>
       <c r="E35" t="n">
-        <v>10.296</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>276.44</v>
+        <v>336.38</v>
       </c>
       <c r="D36" t="n">
-        <v>319.74</v>
+        <v>421.94</v>
       </c>
       <c r="E36" t="n">
-        <v>8.476000000000001</v>
+        <v>3.716</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>205.48</v>
+        <v>307.1</v>
       </c>
       <c r="D37" t="n">
-        <v>245.48</v>
+        <v>350.5</v>
       </c>
       <c r="E37" t="n">
-        <v>11.652</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>245.48</v>
+        <v>268.86</v>
       </c>
       <c r="D38" t="n">
-        <v>290.04</v>
+        <v>348.56</v>
       </c>
       <c r="E38" t="n">
-        <v>8.836</v>
+        <v>12.744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1173,51 +1173,51 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>359.74</v>
+        <v>278.12</v>
       </c>
       <c r="D39" t="n">
-        <v>454.66</v>
+        <v>343.14</v>
       </c>
       <c r="E39" t="n">
-        <v>7.384</v>
+        <v>11.876</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>385.56</v>
+        <v>348.56</v>
       </c>
       <c r="D40" t="n">
-        <v>428.22</v>
+        <v>388.46</v>
       </c>
       <c r="E40" t="n">
-        <v>2.728</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>319.74</v>
+        <v>388.46</v>
       </c>
       <c r="D41" t="n">
-        <v>359.94</v>
+        <v>447.36</v>
       </c>
       <c r="E41" t="n">
-        <v>5.596</v>
+        <v>6.104</v>
       </c>
     </row>
   </sheetData>
